--- a/20140604_emd/강원도/03_시도의원-속초시-속초시제2선거구.xlsx
+++ b/20140604_emd/강원도/03_시도의원-속초시-속초시제2선거구.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24816"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="615" windowWidth="19440" windowHeight="11535"/>
+    <workbookView xWindow="720" yWindow="620" windowWidth="19440" windowHeight="11540"/>
   </bookViews>
   <sheets>
     <sheet name="지역구 도의원선거(속초)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
   <si>
     <t>선거구명</t>
   </si>
@@ -119,22 +124,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="164" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -143,7 +148,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -229,7 +234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -237,7 +242,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -257,6 +262,14 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -290,7 +303,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -581,163 +594,183 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="26.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:11" ht="23">
+      <c r="A1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="3" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="12" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="8" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="9" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="10"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="10"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="8"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="11"/>
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
+        <v>39448</v>
+      </c>
+      <c r="E7" s="2">
+        <v>22937</v>
+      </c>
+      <c r="F7" s="2">
+        <v>13512</v>
+      </c>
+      <c r="G7" s="2">
+        <v>8479</v>
+      </c>
+      <c r="H7" s="2">
+        <v>21991</v>
+      </c>
+      <c r="I7" s="2">
+        <v>946</v>
+      </c>
+      <c r="J7" s="2">
+        <v>16511</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2">
-        <v>39448</v>
+        <v>234</v>
       </c>
       <c r="E8" s="2">
-        <v>22937</v>
+        <v>221</v>
       </c>
       <c r="F8" s="2">
-        <v>13512</v>
+        <v>107</v>
       </c>
       <c r="G8" s="2">
-        <v>8479</v>
+        <v>100</v>
       </c>
       <c r="H8" s="2">
-        <v>21991</v>
+        <v>207</v>
       </c>
       <c r="I8" s="2">
-        <v>946</v>
+        <v>14</v>
       </c>
       <c r="J8" s="2">
-        <v>16511</v>
+        <v>13</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>3</v>
@@ -748,31 +781,31 @@
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="2">
-        <v>234</v>
+        <v>2680</v>
       </c>
       <c r="E9" s="2">
-        <v>221</v>
+        <v>2680</v>
       </c>
       <c r="F9" s="2">
-        <v>107</v>
+        <v>1387</v>
       </c>
       <c r="G9" s="2">
-        <v>100</v>
+        <v>1238</v>
       </c>
       <c r="H9" s="2">
-        <v>207</v>
+        <v>2625</v>
       </c>
       <c r="I9" s="2">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="J9" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>3</v>
@@ -783,31 +816,31 @@
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2">
-        <v>2680</v>
+        <v>16893</v>
       </c>
       <c r="E10" s="2">
-        <v>2680</v>
+        <v>9238</v>
       </c>
       <c r="F10" s="2">
-        <v>1387</v>
+        <v>5533</v>
       </c>
       <c r="G10" s="2">
-        <v>1238</v>
+        <v>3314</v>
       </c>
       <c r="H10" s="2">
-        <v>2625</v>
+        <v>8847</v>
       </c>
       <c r="I10" s="2">
-        <v>55</v>
+        <v>391</v>
       </c>
       <c r="J10" s="2">
-        <v>0</v>
+        <v>7655</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>3</v>
@@ -821,28 +854,28 @@
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2">
-        <v>16893</v>
+        <v>1496</v>
       </c>
       <c r="E11" s="2">
-        <v>9238</v>
+        <v>1496</v>
       </c>
       <c r="F11" s="2">
-        <v>5533</v>
+        <v>857</v>
       </c>
       <c r="G11" s="2">
-        <v>3314</v>
+        <v>591</v>
       </c>
       <c r="H11" s="2">
-        <v>8847</v>
+        <v>1448</v>
       </c>
       <c r="I11" s="2">
-        <v>391</v>
+        <v>48</v>
       </c>
       <c r="J11" s="2">
-        <v>7655</v>
+        <v>0</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>3</v>
@@ -856,28 +889,28 @@
         <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2">
-        <v>1496</v>
+        <v>15397</v>
       </c>
       <c r="E12" s="2">
-        <v>1496</v>
+        <v>7742</v>
       </c>
       <c r="F12" s="2">
-        <v>857</v>
+        <v>4676</v>
       </c>
       <c r="G12" s="2">
-        <v>591</v>
+        <v>2723</v>
       </c>
       <c r="H12" s="2">
-        <v>1448</v>
+        <v>7399</v>
       </c>
       <c r="I12" s="2">
-        <v>48</v>
+        <v>343</v>
       </c>
       <c r="J12" s="2">
-        <v>0</v>
+        <v>7655</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>3</v>
@@ -888,31 +921,31 @@
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D13" s="2">
-        <v>15397</v>
+        <v>16712</v>
       </c>
       <c r="E13" s="2">
-        <v>7742</v>
+        <v>9031</v>
       </c>
       <c r="F13" s="2">
-        <v>4676</v>
+        <v>5179</v>
       </c>
       <c r="G13" s="2">
-        <v>2723</v>
+        <v>3432</v>
       </c>
       <c r="H13" s="2">
-        <v>7399</v>
+        <v>8611</v>
       </c>
       <c r="I13" s="2">
-        <v>343</v>
+        <v>420</v>
       </c>
       <c r="J13" s="2">
-        <v>7655</v>
+        <v>7681</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>3</v>
@@ -926,28 +959,28 @@
         <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2">
-        <v>16712</v>
+        <v>1127</v>
       </c>
       <c r="E14" s="2">
-        <v>9031</v>
+        <v>1127</v>
       </c>
       <c r="F14" s="2">
-        <v>5179</v>
+        <v>591</v>
       </c>
       <c r="G14" s="2">
-        <v>3432</v>
+        <v>500</v>
       </c>
       <c r="H14" s="2">
-        <v>8611</v>
+        <v>1091</v>
       </c>
       <c r="I14" s="2">
-        <v>420</v>
+        <v>36</v>
       </c>
       <c r="J14" s="2">
-        <v>7681</v>
+        <v>0</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>3</v>
@@ -961,28 +994,28 @@
         <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" s="2">
-        <v>1127</v>
+        <v>15585</v>
       </c>
       <c r="E15" s="2">
-        <v>1127</v>
+        <v>7904</v>
       </c>
       <c r="F15" s="2">
-        <v>591</v>
+        <v>4588</v>
       </c>
       <c r="G15" s="2">
-        <v>500</v>
+        <v>2932</v>
       </c>
       <c r="H15" s="2">
-        <v>1091</v>
+        <v>7520</v>
       </c>
       <c r="I15" s="2">
-        <v>36</v>
+        <v>384</v>
       </c>
       <c r="J15" s="2">
-        <v>0</v>
+        <v>7681</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>3</v>
@@ -993,31 +1026,31 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D16" s="2">
-        <v>15585</v>
+        <v>2929</v>
       </c>
       <c r="E16" s="2">
-        <v>7904</v>
+        <v>1767</v>
       </c>
       <c r="F16" s="2">
-        <v>4588</v>
+        <v>1306</v>
       </c>
       <c r="G16" s="2">
-        <v>2932</v>
+        <v>395</v>
       </c>
       <c r="H16" s="2">
-        <v>7520</v>
+        <v>1701</v>
       </c>
       <c r="I16" s="2">
-        <v>384</v>
+        <v>66</v>
       </c>
       <c r="J16" s="2">
-        <v>7681</v>
+        <v>1162</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>3</v>
@@ -1031,28 +1064,28 @@
         <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2">
-        <v>2929</v>
+        <v>230</v>
       </c>
       <c r="E17" s="2">
-        <v>1767</v>
+        <v>230</v>
       </c>
       <c r="F17" s="2">
-        <v>1306</v>
+        <v>155</v>
       </c>
       <c r="G17" s="2">
-        <v>395</v>
+        <v>55</v>
       </c>
       <c r="H17" s="2">
-        <v>1701</v>
+        <v>210</v>
       </c>
       <c r="I17" s="2">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="J17" s="2">
-        <v>1162</v>
+        <v>0</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>3</v>
@@ -1066,122 +1099,89 @@
         <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" s="2">
-        <v>230</v>
+        <v>2699</v>
       </c>
       <c r="E18" s="2">
-        <v>230</v>
+        <v>1537</v>
       </c>
       <c r="F18" s="2">
-        <v>155</v>
+        <v>1151</v>
       </c>
       <c r="G18" s="2">
-        <v>55</v>
+        <v>340</v>
       </c>
       <c r="H18" s="2">
-        <v>210</v>
+        <v>1491</v>
       </c>
       <c r="I18" s="2">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="J18" s="2">
+        <v>1162</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="28">
+      <c r="A19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="6">
         <v>0</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="2">
-        <v>2699</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1537</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1151</v>
-      </c>
-      <c r="G19" s="2">
-        <v>340</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1491</v>
-      </c>
-      <c r="I19" s="2">
-        <v>46</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1162</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="33">
-      <c r="A20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="6">
+      <c r="E19" s="6">
         <v>0</v>
       </c>
-      <c r="E20" s="6">
+      <c r="F19" s="6">
         <v>0</v>
       </c>
-      <c r="F20" s="6">
+      <c r="G19" s="6">
         <v>0</v>
       </c>
-      <c r="G20" s="6">
+      <c r="H19" s="6">
         <v>0</v>
       </c>
-      <c r="H20" s="6">
+      <c r="I19" s="6">
         <v>0</v>
       </c>
-      <c r="I20" s="6">
+      <c r="J19" s="6">
         <v>0</v>
       </c>
-      <c r="J20" s="6">
-        <v>0</v>
-      </c>
-      <c r="K20" s="6" t="s">
+      <c r="K19" s="6" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="12">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="I3:I6"/>
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>